--- a/Data/EC/NIT-9003099125.xlsx
+++ b/Data/EC/NIT-9003099125.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF66E281-D4C5-4EE1-92E7-1FA562FB5D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{608F9846-EDAE-4343-B736-8E249E560AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{361C6778-970F-495F-9204-83F72E909660}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{628FEFEC-06EF-43AA-A989-32A5555BD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,40 +71,40 @@
     <t>ANA DEL ROSARIO CORREDOR MONTERROSA</t>
   </si>
   <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1020738585</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES CORREDOR MONTERROSA</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>1020738585</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES CORREDOR MONTERROSA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -203,7 +203,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -216,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -418,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B20309E-C445-F753-59FF-F4FB5F17DFE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EB13E0-51B3-04EA-7ACE-1C599D34FA42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1520F3C-6A54-4452-B952-0B35E7B09B84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A9E32B-CE46-43EC-B4D5-822BCAA6E50C}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>34666</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1061,16 +1061,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
         <v>1000000</v>
@@ -1090,10 +1090,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
         <v>1000000</v>
@@ -1107,16 +1107,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
         <v>1000000</v>
@@ -1139,7 +1139,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
         <v>1000000</v>
@@ -1208,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
         <v>1000000</v>
@@ -1231,7 +1231,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
         <v>1000000</v>
@@ -1254,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
         <v>1000000</v>
@@ -1268,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1291,19 +1291,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="F27" s="24">
-        <v>36341</v>
+        <v>34666</v>
       </c>
       <c r="G27" s="24">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
